--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,73 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519702</t>
+  </si>
+  <si>
+    <t>005136</t>
+  </si>
+  <si>
     <t>001532</t>
   </si>
   <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>005136</t>
+    <t>交银趋势优先混合</t>
+  </si>
+  <si>
+    <t>华安幸福生活混合</t>
   </si>
   <si>
     <t>华安文体健康主题灵活配置混合</t>
   </si>
   <si>
-    <t>交银趋势优先混合</t>
-  </si>
-  <si>
-    <t>华安幸福生活混合</t>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>82.24</t>
+  </si>
+  <si>
+    <t>82.67</t>
   </si>
   <si>
     <t>86.68</t>
   </si>
   <si>
-    <t>82.24</t>
-  </si>
-  <si>
-    <t>82.67</t>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>2.61</t>
   </si>
   <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.25</t>
+    <t>0.4308</t>
+  </si>
+  <si>
+    <t>0.4024</t>
+  </si>
+  <si>
+    <t>0.1021</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,65 +468,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>005136</t>
-  </si>
-  <si>
-    <t>001532</t>
-  </si>
-  <si>
-    <t>交银趋势优先混合</t>
-  </si>
-  <si>
-    <t>华安幸福生活混合</t>
-  </si>
-  <si>
-    <t>华安文体健康主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>15.44</t>
-  </si>
-  <si>
-    <t>12.38</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>82.24</t>
-  </si>
-  <si>
-    <t>82.67</t>
-  </si>
-  <si>
-    <t>86.68</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>0.4308</t>
-  </si>
-  <si>
-    <t>0.4024</t>
-  </si>
-  <si>
-    <t>0.1021</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.86</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1737,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2392,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="5">
@@ -2277,13 +2408,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300421-力星股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -695,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1947,7 +2134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
